--- a/database_export.xlsx
+++ b/database_export.xlsx
@@ -610,7 +610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,6 +704,47 @@
       </c>
       <c r="I2" s="2" t="n">
         <v>45713.17347027053</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>63276997-5d7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rasgula</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>hetheyelloweyed@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>26000</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>upi://pay?pa=6283060669%40ptsbi&amp;pn=rm4952989%40gmail.com&amp;tid=63276997-5d7&amp;tr=63276997-5d7&amp;tn=OrderPayment&amp;am=26000.0&amp;cu=INR</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>45715.32239224646</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +921,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>rajan's ahop</t>
+          <t>Rajan's Shop</t>
         </is>
       </c>
       <c r="K2" t="b">
@@ -893,12 +934,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>30.670882379377094</t>
+          <t>30.670858888884556</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>76.83413543234153</t>
+          <t>76.83412363143059</t>
         </is>
       </c>
     </row>

--- a/database_export.xlsx
+++ b/database_export.xlsx
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -610,7 +610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,88 @@
       </c>
       <c r="I3" s="2" t="n">
         <v>45715.32239224646</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cef5dc6e-c2b</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rasgula</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>hetheyelloweyed@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>upi://pay?pa=6283060669%40ptsbi&amp;pn=rm4952989%40gmail.com&amp;tid=cef5dc6e-c2b&amp;tr=cef5dc6e-c2b&amp;tn=OrderPayment&amp;am=13000.0&amp;cu=INR</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>45716.34756623171</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bc9758e3-211</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rasgula</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>hetheyelloweyed@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3380</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>upi://pay?pa=6283060669%40ptsbi&amp;pn=rm4952989%40gmail.com&amp;tid=bc9758e3-211&amp;tr=bc9758e3-211&amp;tn=OrderPayment&amp;am=3380.0&amp;cu=INR</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>13</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>45716.35126047345</v>
       </c>
     </row>
   </sheetData>
@@ -799,7 +881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,12 +1016,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>30.670858888884556</t>
+          <t>30.761473438302094</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>76.83412363143059</t>
+          <t>76.61800994027072</t>
         </is>
       </c>
     </row>
@@ -986,6 +1068,54 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ralph</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>56545465654</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>mikelmac97@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$Kkz7Bq0VY1UUD9Ne$afc00eb863fe880bcaaa4d22f145060622b9254aee0f5dc80e7419d291ba0a9c939ed640afb2439a5a63e0f1f6ec5ab7de3f5ad7d1869fad0cd65bb107a12f40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>65646444</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>vendor</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>45716.30657873719</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/database_export.xlsx
+++ b/database_export.xlsx
@@ -560,16 +560,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rasgula</t>
+          <t>rasgula</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>white sponge of milk with sweet syrup</t>
+          <t>white sponge with sweet syrup</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>37</v>
+        <v>980</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -610,7 +610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,10 +656,40 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>consumer_id</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>vendor_id</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>rider_id</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>status</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>delivered_at</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rider_fee</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>delivery_fee</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>created_at</t>
         </is>
@@ -668,12 +698,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>efee48f6-e34</t>
+          <t>c15de6ee-bce</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rasgula</t>
+          <t>rasgula</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -682,39 +712,55 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13000</v>
+        <v>1600</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>upi://pay?pa=6283060669%40ptsbi&amp;pn=rm4952989%40gmail.com&amp;tid=efee48f6-e34&amp;tr=efee48f6-e34&amp;tn=OrderPayment&amp;am=13000.0&amp;cu=INR</t>
+          <t>upi://pay?pa=54454&amp;pn=rm4952989%40gmail.com&amp;tid=c15de6ee-bce&amp;tr=c15de6ee-bce&amp;tn=OrderPayment&amp;am=1600.0&amp;cu=INR</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>cancelled</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>45713.17347027053</v>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Assigned to Rider</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>45719.10806898399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>63276997-5d7</t>
+          <t>f42e5a3c-6a7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rasgula</t>
+          <t>rasgula</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -723,110 +769,44 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>26000</v>
+        <v>1600</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>upi://pay?pa=6283060669%40ptsbi&amp;pn=rm4952989%40gmail.com&amp;tid=63276997-5d7&amp;tr=63276997-5d7&amp;tn=OrderPayment&amp;am=26000.0&amp;cu=INR</t>
+          <t>upi://pay?pa=54454&amp;pn=rm4952989%40gmail.com&amp;tid=f42e5a3c-6a7&amp;tr=f42e5a3c-6a7&amp;tn=OrderPayment&amp;am=1600.0&amp;cu=INR</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>cancelled</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>45715.32239224646</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>cef5dc6e-c2b</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rasgula</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>hetheyelloweyed@gmail.com</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>13000</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>upi://pay?pa=6283060669%40ptsbi&amp;pn=rm4952989%40gmail.com&amp;tid=cef5dc6e-c2b&amp;tr=cef5dc6e-c2b&amp;tn=OrderPayment&amp;am=13000.0&amp;cu=INR</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>45716.34756623171</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>bc9758e3-211</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Rasgula</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>hetheyelloweyed@gmail.com</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3380</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>upi://pay?pa=6283060669%40ptsbi&amp;pn=rm4952989%40gmail.com&amp;tid=bc9758e3-211&amp;tr=bc9758e3-211&amp;tn=OrderPayment&amp;am=3380.0&amp;cu=INR</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>13</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>45716.35126047345</v>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>45719.11473912199</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -960,6 +940,41 @@
           <t>longitude</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>vehicle_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>vehicle_number</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>id_proof</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>insurance</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -982,12 +997,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>scrypt:32768:8:1$5KhImJ34vWI2XauB$1a5198779ed56016480436ce3719eb401b856cdcfaa0da270687decd34f265a640785e0291d7297dfd577f7b8db6e8336e3839eff604cdbafa7455c41efda9c9</t>
+          <t>scrypt:32768:8:1$o6UBFd37PdQIRI8s$2baa801d60282d947a3b9fc1bdaf2397c02d8670b435f1877cc4ee5bdf328e4c917d10dd617eec70160a29415cbf6149e1ad418fb45485a8cd1614e6bc830d6e</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6283060669@ptsbi</t>
+          <t>54454</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -996,7 +1011,7 @@
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45713.16579755644</v>
+        <v>45719.10413717318</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -1016,13 +1031,22 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>30.761473438302094</t>
+          <t>30.67105821821407</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>76.61800994027072</t>
-        </is>
+          <t>76.83406802927261</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1036,7 +1060,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>464564644</t>
+          <t>656565</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1046,7 +1070,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>scrypt:32768:8:1$WDRvIoWKitaSYUSs$a16df16288148faff9c3bbdf8b8323278541927717bd331fd1ab89de8cb65bd7c6bfa338ff5bd6dc7920688f62b796faf2d34b629304ba01c0de95173d759fc2</t>
+          <t>scrypt:32768:8:1$bdpioYosJ92e5ir4$9518040e7acc605af64287ad4db65921479418743344d44f63f251f9b9857538bcd19bbc2e8481ffb63cce02532e7c857028b040444325bdaffcf75ac2fa4d4e</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -1056,7 +1080,7 @@
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45713.17153422787</v>
+        <v>45719.10693574254</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -1068,6 +1092,15 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1075,39 +1108,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ralph</t>
+          <t>rajan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>56545465654</t>
+          <t>444545</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>mikelmac97@gmail.com</t>
+          <t>mishrarajan2000@gmail.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>scrypt:32768:8:1$Kkz7Bq0VY1UUD9Ne$afc00eb863fe880bcaaa4d22f145060622b9254aee0f5dc80e7419d291ba0a9c939ed640afb2439a5a63e0f1f6ec5ab7de3f5ad7d1869fad0cd65bb107a12f40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>65646444</t>
-        </is>
-      </c>
+          <t>scrypt:32768:8:1$IO4gR64DAu204e6b$17788adf227ff0252569098503841afa7d00e79c529f8afadf66aac2eedc67fe9306d2d68ec159d4fcf1c2a65992d64318408172fc185ad8853b4603c28c0c98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>vendor</t>
+          <t>rider</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45716.30657873719</v>
+        <v>45719.10883874108</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="b">
@@ -1116,6 +1145,88 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cnijdsfhdjf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>65445</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>rajan@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$kZ7OH72MgMeiyejV$ee5a67853f41205733431f112a4113cf15ca11d60fb2f52615dd7ebeb0d08dca4a5974ea8df88a69520ad894d93f059a8cbc87719bc548ef0fa6feeeb3f6f11b</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>rider</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>45719.11264453945</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>two-wheeler</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1740969732_Designing_a_Modern_Fast_Food_Restaurant.jpg</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>1740969732_Rubber_Stamp_Vector_PNG_Images_Kyc_Know_Your_Customer_Grunge_Rubber_Stamp_On_White_Background_Business_White_Goal_PNG_Image_For_Free_Download.jpg</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1740969732_WhatsApp_Image_2025-02-25_at_08.19.22.jpeg</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1740969732_Rubber_Stamp_Vector_PNG_Images_Kyc_Know_Your_Customer_Grunge_Rubber_Stamp_On_White_Background_Business_White_Goal_PNG_Image_For_Free_Download.jpg</t>
+        </is>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/database_export.xlsx
+++ b/database_export.xlsx
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>980</v>
+        <v>868</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -610,7 +610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,6 +807,120 @@
       </c>
       <c r="O3" s="2" t="n">
         <v>45719.11473912199</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7c68be96-643</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>rasgula</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>hetheyelloweyed@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>upi://pay?pa=54454&amp;pn=rm4952989%40gmail.com&amp;tid=7c68be96-643&amp;tr=7c68be96-643&amp;tn=OrderPayment&amp;am=1920.0&amp;cu=INR</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>45720.11035931765</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>f6949070-3f2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>rasgula</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>hetheyelloweyed@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>upi://pay?pa=54454&amp;pn=rm4952989%40gmail.com&amp;tid=f6949070-3f2&amp;tr=f6949070-3f2&amp;tn=OrderPayment&amp;am=16000.0&amp;cu=INR</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>delivered</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>45721.40117105601</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1266,7 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
